--- a/src/tournament/schedules/pool_A/schedule.xlsx
+++ b/src/tournament/schedules/pool_A/schedule.xlsx
@@ -567,7 +567,7 @@
         <v>45641.625</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45641.62673611111</v>
+        <v>45641.62708333333</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -595,10 +595,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45641.62673611111</v>
+        <v>45641.62708333333</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>45641.62708333333</v>
+        <v>45641.62743055556</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45641.62708333333</v>
+        <v>45641.62743055556</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>45641.62881944444</v>
+        <v>45641.62951388889</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,10 +657,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>45641.62881944444</v>
+        <v>45641.62951388889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45641.62916666667</v>
+        <v>45641.62986111111</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>45641.62916666667</v>
+        <v>45641.62986111111</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>45641.63090277778</v>
+        <v>45641.63194444445</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -719,10 +719,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>45641.63090277778</v>
+        <v>45641.63194444445</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>45641.63125</v>
+        <v>45641.63229166667</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
@@ -750,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>45641.63125</v>
+        <v>45641.63229166667</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>45641.63298611111</v>
+        <v>45641.634375</v>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
@@ -781,10 +781,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45641.63298611111</v>
+        <v>45641.634375</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45641.63333333333</v>
+        <v>45641.63472222222</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>45641.63333333333</v>
+        <v>45641.63472222222</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>45641.63506944444</v>
+        <v>45641.63680555556</v>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
@@ -843,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>45641.63506944444</v>
+        <v>45641.63680555556</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>45641.63541666666</v>
+        <v>45641.63715277778</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
@@ -874,10 +874,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>45641.63541666666</v>
+        <v>45641.63715277778</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>45641.63715277778</v>
+        <v>45641.63923611111</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -905,10 +905,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>45641.63715277778</v>
+        <v>45641.63923611111</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>45641.6375</v>
+        <v>45641.63958333333</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
@@ -936,10 +936,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>45641.6375</v>
+        <v>45641.63958333333</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>45641.63923611111</v>
+        <v>45641.64166666667</v>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
@@ -967,10 +967,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="n">
-        <v>45641.63923611111</v>
+        <v>45641.64166666667</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>45641.64340277778</v>
+        <v>45641.64618055556</v>
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G15" s="8" t="inlineStr">
@@ -998,10 +998,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>45641.64340277778</v>
+        <v>45641.64618055556</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>45641.64375</v>
+        <v>45641.64652777778</v>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>45641.64375</v>
+        <v>45641.64652777778</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>45641.64548611111</v>
+        <v>45641.64861111111</v>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G17" s="6" t="inlineStr">
@@ -1060,10 +1060,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>45641.64548611111</v>
+        <v>45641.64861111111</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>45641.64722222222</v>
+        <v>45641.65069444444</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>45641.64722222222</v>
+        <v>45641.65069444444</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>45641.64756944445</v>
+        <v>45641.65104166666</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>45641.64756944445</v>
+        <v>45641.65104166666</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>45641.64930555555</v>
+        <v>45641.653125</v>
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
@@ -1153,10 +1153,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45641.64930555555</v>
+        <v>45641.653125</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>45641.64965277778</v>
+        <v>45641.65347222222</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>45641.64965277778</v>
+        <v>45641.65347222222</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>45641.65138888889</v>
+        <v>45641.65555555555</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1215,10 +1215,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>45641.65138888889</v>
+        <v>45641.65555555555</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>45641.65173611111</v>
+        <v>45641.65590277778</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>45641.65173611111</v>
+        <v>45641.65590277778</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>45641.65347222222</v>
+        <v>45641.65798611111</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1277,10 +1277,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>45641.65347222222</v>
+        <v>45641.65798611111</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>45641.65520833333</v>
+        <v>45641.66006944444</v>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G25" s="6" t="inlineStr">
@@ -1308,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>45641.65520833333</v>
+        <v>45641.66006944444</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>45641.65555555555</v>
+        <v>45641.66041666667</v>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>45641.65555555555</v>
+        <v>45641.66041666667</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>45641.65729166667</v>
+        <v>45641.6625</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1370,10 +1370,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>45641.65729166667</v>
+        <v>45641.6625</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>45641.65763888889</v>
+        <v>45641.66284722222</v>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
@@ -1401,10 +1401,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>45641.65763888889</v>
+        <v>45641.66284722222</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>45641.65798611111</v>
+        <v>45641.66319444445</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B30" s="11" t="n">
-        <v>45641.65798611111</v>
+        <v>45641.66319444445</v>
       </c>
       <c r="C30" s="11" t="n">
-        <v>45641.66493055555</v>
+        <v>45641.67013888889</v>
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>45641.66493055555</v>
+        <v>45641.67013888889</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>45641.66666666666</v>
+        <v>45641.67222222222</v>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1492,10 +1492,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>45641.65972222222</v>
+        <v>45641.66527777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>45641.66006944444</v>
+        <v>45641.665625</v>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
@@ -1523,10 +1523,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>45641.66006944444</v>
+        <v>45641.665625</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>45641.66180555556</v>
+        <v>45641.66770833333</v>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1554,10 +1554,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>45641.66180555556</v>
+        <v>45641.66770833333</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>45641.66215277778</v>
+        <v>45641.66805555556</v>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
@@ -1585,10 +1585,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>45641.66215277778</v>
+        <v>45641.66805555556</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>45641.66388888889</v>
+        <v>45641.67013888889</v>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1616,10 +1616,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>45641.66388888889</v>
+        <v>45641.67013888889</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45641.66423611111</v>
+        <v>45641.67048611111</v>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
@@ -1647,10 +1647,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="n">
-        <v>45641.66423611111</v>
+        <v>45641.67048611111</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>45641.66597222222</v>
+        <v>45641.67256944445</v>
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
@@ -1678,10 +1678,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>45641.66597222222</v>
+        <v>45641.67256944445</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>45641.66631944444</v>
+        <v>45641.67291666667</v>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
@@ -1709,10 +1709,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="n">
-        <v>45641.66631944444</v>
+        <v>45641.67291666667</v>
       </c>
       <c r="C39" s="7" t="n">
-        <v>45641.66805555556</v>
+        <v>45641.675</v>
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G39" s="6" t="inlineStr">
@@ -1740,10 +1740,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>45641.66805555556</v>
+        <v>45641.675</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>45641.66840277778</v>
+        <v>45641.67534722222</v>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>45641.66840277778</v>
+        <v>45641.67534722222</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>45641.67013888889</v>
+        <v>45641.67743055556</v>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -1802,10 +1802,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>45641.67013888889</v>
+        <v>45641.67743055556</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>45641.67048611111</v>
+        <v>45641.67777777778</v>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
@@ -1833,10 +1833,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="7" t="n">
-        <v>45641.67048611111</v>
+        <v>45641.67777777778</v>
       </c>
       <c r="C43" s="7" t="n">
-        <v>45641.67222222222</v>
+        <v>45641.67986111111</v>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
@@ -1864,10 +1864,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="n">
-        <v>45641.67222222222</v>
+        <v>45641.67986111111</v>
       </c>
       <c r="C44" s="9" t="n">
-        <v>45641.67638888889</v>
+        <v>45641.684375</v>
       </c>
       <c r="D44" s="8" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F44" s="8" t="inlineStr">
         <is>
-          <t>6min 0s</t>
+          <t>6min 30s</t>
         </is>
       </c>
       <c r="G44" s="8" t="inlineStr">
@@ -1895,10 +1895,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>45641.67638888889</v>
+        <v>45641.684375</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>45641.67673611111</v>
+        <v>45641.68472222222</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
@@ -1926,10 +1926,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="7" t="n">
-        <v>45641.67673611111</v>
+        <v>45641.68472222222</v>
       </c>
       <c r="C46" s="7" t="n">
-        <v>45641.67847222222</v>
+        <v>45641.68680555555</v>
       </c>
       <c r="D46" s="6" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G46" s="6" t="inlineStr">
@@ -1957,10 +1957,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>45641.67847222222</v>
+        <v>45641.68680555555</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>45641.68020833333</v>
+        <v>45641.68888888889</v>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -1988,10 +1988,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>45641.68020833333</v>
+        <v>45641.68888888889</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>45641.68055555555</v>
+        <v>45641.68923611111</v>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="7" t="n">
-        <v>45641.68055555555</v>
+        <v>45641.68923611111</v>
       </c>
       <c r="C49" s="7" t="n">
-        <v>45641.68229166666</v>
+        <v>45641.69131944444</v>
       </c>
       <c r="D49" s="6" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G49" s="6" t="inlineStr">
@@ -2050,10 +2050,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>45641.68229166666</v>
+        <v>45641.69131944444</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>45641.68263888889</v>
+        <v>45641.69166666667</v>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
@@ -2081,10 +2081,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>45641.68263888889</v>
+        <v>45641.69166666667</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>45641.684375</v>
+        <v>45641.69375</v>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -2112,10 +2112,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>45641.684375</v>
+        <v>45641.69375</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>45641.68472222222</v>
+        <v>45641.69409722222</v>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>45641.68472222222</v>
+        <v>45641.69409722222</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>45641.68645833333</v>
+        <v>45641.69618055555</v>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -2174,10 +2174,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="7" t="n">
-        <v>45641.68645833333</v>
+        <v>45641.69618055555</v>
       </c>
       <c r="C54" s="7" t="n">
-        <v>45641.68819444445</v>
+        <v>45641.69826388889</v>
       </c>
       <c r="D54" s="6" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G54" s="6" t="inlineStr">
@@ -2205,10 +2205,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>45641.68819444445</v>
+        <v>45641.69826388889</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>45641.68854166667</v>
+        <v>45641.69861111111</v>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
@@ -2236,10 +2236,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>45641.68854166667</v>
+        <v>45641.69861111111</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>45641.69027777778</v>
+        <v>45641.70069444444</v>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>2min 30s</t>
+          <t>3min 0s</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -2267,10 +2267,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>45641.69027777778</v>
+        <v>45641.70069444444</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>45641.690625</v>
+        <v>45641.70104166667</v>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
@@ -2298,10 +2298,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="n">
-        <v>45641.690625</v>
+        <v>45641.70104166667</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>45641.69097222222</v>
+        <v>45641.70138888889</v>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
